--- a/input/dummy_raw_data.xlsx
+++ b/input/dummy_raw_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,23 @@
     <sheet name="women" sheetId="6" r:id="rId6"/>
     <sheet name="died_member" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -10409,7 +10425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10742,9 +10758,9 @@
       <selection activeCell="BX6" sqref="BX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:757">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13017,7 +13033,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="2" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:757">
       <c r="A2" t="s">
         <v>757</v>
       </c>
@@ -14921,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:757">
       <c r="A3" t="s">
         <v>850</v>
       </c>
@@ -16840,7 +16856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:757">
       <c r="A4" t="s">
         <v>932</v>
       </c>
@@ -18690,7 +18706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:757">
       <c r="A5" t="s">
         <v>1001</v>
       </c>
@@ -20618,7 +20634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:757">
       <c r="A6" t="s">
         <v>1068</v>
       </c>
@@ -22453,7 +22469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:757">
       <c r="A7" t="s">
         <v>1129</v>
       </c>
@@ -24399,7 +24415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:757">
       <c r="A8" t="s">
         <v>1193</v>
       </c>
@@ -26240,7 +26256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:757">
       <c r="A9" t="s">
         <v>1257</v>
       </c>
@@ -28219,7 +28235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:757">
       <c r="A10" t="s">
         <v>1318</v>
       </c>
@@ -30216,7 +30232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:757">
       <c r="A11" t="s">
         <v>1380</v>
       </c>
@@ -32114,7 +32130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:757">
       <c r="A12" t="s">
         <v>1439</v>
       </c>
@@ -34060,7 +34076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:757">
       <c r="A13" t="s">
         <v>1500</v>
       </c>
@@ -35877,7 +35893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:757">
       <c r="A14" t="s">
         <v>1552</v>
       </c>
@@ -37745,7 +37761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:757">
       <c r="A15" t="s">
         <v>1611</v>
       </c>
@@ -39655,7 +39671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:757">
       <c r="A16" t="s">
         <v>1664</v>
       </c>
@@ -41550,7 +41566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:757">
       <c r="A17" t="s">
         <v>1720</v>
       </c>
@@ -43562,7 +43578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:757">
       <c r="A18" t="s">
         <v>1773</v>
       </c>
@@ -45451,7 +45467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:757">
       <c r="A19" t="s">
         <v>1825</v>
       </c>
@@ -47319,7 +47335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:757">
       <c r="A20" t="s">
         <v>1881</v>
       </c>
@@ -49154,7 +49170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:757">
       <c r="A21" t="s">
         <v>1932</v>
       </c>
@@ -50989,7 +51005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:757">
       <c r="A22" t="s">
         <v>1984</v>
       </c>
@@ -52815,7 +52831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:757">
       <c r="A23" t="s">
         <v>2034</v>
       </c>
@@ -54749,7 +54765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:757">
       <c r="A24" t="s">
         <v>2099</v>
       </c>
@@ -56677,7 +56693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:757">
       <c r="A25" t="s">
         <v>2148</v>
       </c>
@@ -58506,7 +58522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:757">
       <c r="A26" t="s">
         <v>2201</v>
       </c>
@@ -60431,7 +60447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:757">
       <c r="A27" t="s">
         <v>2249</v>
       </c>
@@ -62389,7 +62405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:757">
       <c r="A28" t="s">
         <v>2307</v>
       </c>
@@ -64212,7 +64228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:757">
       <c r="A29" t="s">
         <v>2355</v>
       </c>
@@ -66014,7 +66030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:757">
       <c r="A30" t="s">
         <v>2401</v>
       </c>
@@ -67927,7 +67943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:757">
       <c r="A31" t="s">
         <v>2454</v>
       </c>
@@ -69810,7 +69826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:757">
       <c r="A32" t="s">
         <v>2496</v>
       </c>
@@ -71645,7 +71661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:757">
       <c r="A33" t="s">
         <v>2539</v>
       </c>
@@ -73672,7 +73688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:757">
       <c r="A34" t="s">
         <v>2589</v>
       </c>
@@ -75555,7 +75571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:757">
       <c r="A35" t="s">
         <v>2639</v>
       </c>
@@ -77564,7 +77580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:757">
       <c r="A36" t="s">
         <v>2691</v>
       </c>
@@ -79474,7 +79490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:757">
       <c r="A37" t="s">
         <v>2743</v>
       </c>
@@ -81267,7 +81283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:757">
       <c r="A38" t="s">
         <v>2788</v>
       </c>
@@ -83096,7 +83112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:757">
       <c r="A39" t="s">
         <v>2831</v>
       </c>
@@ -85036,7 +85052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:757">
       <c r="A40" t="s">
         <v>2880</v>
       </c>
@@ -86973,7 +86989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:757">
       <c r="A41" t="s">
         <v>2933</v>
       </c>
@@ -88850,7 +88866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:757">
       <c r="A42" t="s">
         <v>2978</v>
       </c>
@@ -90721,7 +90737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:757">
       <c r="A43" t="s">
         <v>3025</v>
       </c>
@@ -92538,7 +92554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:757">
       <c r="A44" t="s">
         <v>3076</v>
       </c>
@@ -94406,7 +94422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:757">
       <c r="A45" t="s">
         <v>3126</v>
       </c>
@@ -96265,7 +96281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:757">
       <c r="A46" t="s">
         <v>3171</v>
       </c>
@@ -98175,7 +98191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:757">
       <c r="A47" t="s">
         <v>3219</v>
       </c>
@@ -100283,7 +100299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:757">
       <c r="A48" t="s">
         <v>3273</v>
       </c>
@@ -102217,7 +102233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:757">
       <c r="A49" t="s">
         <v>3319</v>
       </c>
@@ -104121,7 +104137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:757">
       <c r="A50" t="s">
         <v>3361</v>
       </c>
@@ -106115,7 +106131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:757" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:757">
       <c r="A51" t="s">
         <v>3413</v>
       </c>
@@ -108004,7 +108020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -108017,7 +108033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -108030,7 +108046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -108043,7 +108059,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -108056,7 +108072,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -108069,7 +108085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -108077,8 +108093,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064B5BF8B0F90A143B1A4ACAD04008153" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd981dad2fc4ade40153f1adb81431d9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30973102-2308-455b-8e1f-b6a90edc3b23" xmlns:ns3="947c1918-d5ab-48a1-8b61-0d52f2f99fd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5560d15ed1fa06c5355f4bcdb91e3fc0" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30973102-2308-455b-8e1f-b6a90edc3b23">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="947c1918-d5ab-48a1-8b61-0d52f2f99fd1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064B5BF8B0F90A143B1A4ACAD04008153" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2d52f37336c5c3d67f6aee7fcfa9c828">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30973102-2308-455b-8e1f-b6a90edc3b23" xmlns:ns3="947c1918-d5ab-48a1-8b61-0d52f2f99fd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8cb13efdaa903371293ba4bc1418339a" ns2:_="" ns3:_="">
     <xsd:import namespace="30973102-2308-455b-8e1f-b6a90edc3b23"/>
     <xsd:import namespace="947c1918-d5ab-48a1-8b61-0d52f2f99fd1"/>
     <xsd:element name="properties">
@@ -108121,7 +108157,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4d06f0b5-5743-41f2-90d3-b12c8ffc7f36" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4d06f0b5-5743-41f2-90d3-b12c8ffc7f36" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -108185,7 +108221,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -108204,7 +108240,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -108221,8 +108257,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -108311,19 +108347,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC02E7B-45ED-49A6-AF02-BDB4617C6670}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B586D36-8497-4A5F-8969-CF4473DB4266}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3816FA-0FC1-4D59-A6D4-514E37DFCF52}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F88CD740-7444-4EC0-B20F-F808ADB5805F}"/>
 </file>